--- a/testData.xlsx
+++ b/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eitan\IdeaProjects\selenium-project-qualitest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D524713F-DA2D-4150-AF43-6A75DF707649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB88802B-42B8-4981-82E5-ED5D1F17B6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{BDFDDDB4-9041-4BFE-9701-1201460E81C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDFDDDB4-9041-4BFE-9701-1201460E81C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t xml:space="preserve">Great product, highly recommend </t>
+  </si>
+  <si>
+    <t>Maksym</t>
+  </si>
+  <si>
+    <t>tester@testing.com</t>
+  </si>
+  <si>
+    <t>Very good, 5 star</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>John@mail.com</t>
+  </si>
+  <si>
+    <t>Poor delivery</t>
   </si>
 </sst>
 </file>
@@ -405,16 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EA6C1A-D0D7-4D46-90D1-1F5E6DE45D8E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -440,9 +458,33 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{1BCE1FBB-0A62-4365-9728-D9EB20C44B35}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{81DC6349-46A7-4876-AE42-D7CE4F906E1F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{3034B769-BD72-4319-8ACF-DA3361C92118}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
